--- a/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLoanBal.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLoanBal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.16\St1Share(NAS)\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B73716-4D21-457D-831A-88116B2AF58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091E60DB-E2F7-4CA0-8F8E-D78281A507E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14445" yWindow="1905" windowWidth="14400" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -191,15 +191,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CdAcCode會計科子細目設定檔
-310: 短期擔保放款 
-320: 中期擔保放款
-330: 長期擔保放款
-340: 三十年房貸
-990: 催收款項</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>AcctCode</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -216,14 +207,6 @@
   </si>
   <si>
     <t>額度業務科目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdAcCode會計科子細目設定檔
-310: 短期擔保放款 
-320: 中期擔保放款
-330: 長期擔保放款
-340: 三十年房貸</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -291,22 +274,6 @@
     <t>(準)利害關係人職稱</t>
   </si>
   <si>
-    <t>共用代碼檔
-01: 董事長
-02: 副董事長
-03: 董事
-04: 監察人
-05: 總經理
-06: 副總經理
-07: 協理
-08: 經理
-09: 副理
-10: 辦理授信職員
-11: 十五日薪
-98: 其他關係人
-99: 非關係人</t>
-  </si>
-  <si>
     <t>ClCode1</t>
   </si>
   <si>
@@ -475,10 +442,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>000：全公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>AcSubBookCode</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -489,6 +452,44 @@
   <si>
     <t>00A:傳統帳冊
 201:利變年金帳冊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdAcCode會計科子細目設定檔
+310:短期擔保放款 
+320:中期擔保放款
+330:長期擔保放款
+340:三十年房貸
+990:催收款項</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdAcCode會計科子細目設定檔
+310:短期擔保放款 
+320:中期擔保放款
+330:長期擔保放款
+340:三十年房貸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>000:全公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+01:董事長
+02:副董事長
+03:董事
+04:監察人
+05:總經理
+06:副總經理
+07:協理
+08:經理
+09:副理
+10:辦理授信職員
+11:十五日薪
+98:其他關係人
+99:非關係人</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -858,6 +859,15 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -869,15 +879,6 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1222,39 +1223,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.125" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="7"/>
+    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.109375" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1265,13 +1266,13 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>13</v>
@@ -1280,51 +1281,51 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="4"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1347,15 +1348,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="21" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>1</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -1366,7 +1367,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>2</v>
       </c>
@@ -1385,7 +1386,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>3</v>
       </c>
@@ -1404,7 +1405,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>4</v>
       </c>
@@ -1423,12 +1424,12 @@
       <c r="F12" s="33"/>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:7" s="30" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="30" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>5</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>25</v>
@@ -1441,18 +1442,18 @@
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="30" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="30" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>38</v>
@@ -1462,10 +1463,10 @@
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="26" customFormat="1" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="26" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>7</v>
       </c>
@@ -1484,7 +1485,7 @@
       <c r="F15" s="33"/>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>8</v>
       </c>
@@ -1505,15 +1506,15 @@
       </c>
       <c r="G16" s="39"/>
     </row>
-    <row r="17" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>9</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>14</v>
@@ -1525,10 +1526,10 @@
         <v>2</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>10</v>
       </c>
@@ -1549,15 +1550,15 @@
       </c>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>11</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>14</v>
@@ -1569,18 +1570,18 @@
         <v>2</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>12</v>
       </c>
       <c r="B20" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>54</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>56</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>14</v>
@@ -1592,18 +1593,18 @@
         <v>2</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>13</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>14</v>
@@ -1615,18 +1616,18 @@
         <v>2</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>14</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>14</v>
@@ -1638,18 +1639,18 @@
         <v>2</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>15</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>14</v>
@@ -1661,18 +1662,18 @@
         <v>2</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>16</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>14</v>
@@ -1684,18 +1685,18 @@
         <v>2</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="32" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="32" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>17</v>
       </c>
       <c r="B25" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>50</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>38</v>
@@ -1706,15 +1707,15 @@
       <c r="F25" s="33"/>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>18</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>12</v>
@@ -1724,21 +1725,21 @@
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="32" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="32" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>19</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E27" s="29">
         <v>1</v>
@@ -1747,18 +1748,18 @@
         <v>35</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="26" customFormat="1" ht="231" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="26" customFormat="1" ht="226.8" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>20</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>12</v>
@@ -1768,18 +1769,18 @@
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="26" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="26" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>21</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>38</v>
@@ -1789,21 +1790,21 @@
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>22</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E30" s="29">
         <v>1</v>
@@ -1812,18 +1813,18 @@
         <v>35</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <v>23</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>14</v>
@@ -1835,21 +1836,21 @@
         <v>35</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
         <v>24</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E32" s="29">
         <v>7</v>
@@ -1857,15 +1858,15 @@
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
     </row>
-    <row r="33" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
         <v>25</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>38</v>
@@ -1877,18 +1878,18 @@
         <v>35</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <v>26</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>14</v>
@@ -1901,15 +1902,15 @@
       </c>
       <c r="G34" s="28"/>
     </row>
-    <row r="35" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <v>27</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35" s="43" t="s">
         <v>14</v>
@@ -1922,7 +1923,7 @@
       </c>
       <c r="G35" s="28"/>
     </row>
-    <row r="36" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <v>28</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <v>29</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22">
         <v>30</v>
       </c>
@@ -1985,7 +1986,7 @@
       </c>
       <c r="G38" s="33"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="22">
         <v>31</v>
       </c>
@@ -2004,25 +2005,25 @@
       <c r="F39" s="33"/>
       <c r="G39" s="22"/>
     </row>
-    <row r="40" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>32</v>
       </c>
-      <c r="B40" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="49" t="s">
+      <c r="B40" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="49">
+      <c r="E40" s="45">
         <v>3</v>
       </c>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51" t="s">
-        <v>115</v>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2050,15 +2051,15 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
     </row>
   </sheetData>
@@ -2087,33 +2088,33 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="53.875" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="53.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="B2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
